--- a/input/판매처리스트.xlsx
+++ b/input/판매처리스트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Work\2.ExcelMacro\8.크리에이티브네트웍스\2.개발중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Work\3.Program\1.Web\creative_networks\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDA6D9-4861-42C3-BD10-5FAA5C16E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E6DDA-4724-470D-8185-BA9C63A063A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E78489D-6D36-428F-A7F5-4883A5D38A20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>판매처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,83 @@
   </si>
   <si>
     <t>준텔레콤관평동(서동관)</t>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-456-789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이순신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도봉순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-789-963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>741-852-963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210-526-987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가양동원통신(정경윤)</t>
+  </si>
+  <si>
+    <t>갈마소리통신(정경윤)</t>
+  </si>
+  <si>
+    <t>베트남 예은씨</t>
   </si>
 </sst>
 </file>
@@ -444,94 +521,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C598654-3A42-4ED6-A2AA-831BB5F68B33}">
-  <dimension ref="B1:C130"/>
+  <dimension ref="B1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="38.59765625" customWidth="1"/>
     <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
